--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H2">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I2">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J2">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.875567333333333</v>
+        <v>1.684496</v>
       </c>
       <c r="N2">
-        <v>5.626702</v>
+        <v>5.053488</v>
       </c>
       <c r="O2">
-        <v>0.9147184316015461</v>
+        <v>0.6423607101334534</v>
       </c>
       <c r="P2">
-        <v>0.9397527619538806</v>
+        <v>0.7282461611889918</v>
       </c>
       <c r="Q2">
-        <v>77.87281670647066</v>
+        <v>49.55780494016</v>
       </c>
       <c r="R2">
-        <v>700.8553503582359</v>
+        <v>446.02024446144</v>
       </c>
       <c r="S2">
-        <v>0.6682122676694365</v>
+        <v>0.398726136756879</v>
       </c>
       <c r="T2">
-        <v>0.7170826956308032</v>
+        <v>0.4866832231574087</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H3">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I3">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J3">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.163866</v>
+        <v>0.9277985</v>
       </c>
       <c r="N3">
-        <v>0.327732</v>
+        <v>1.855597</v>
       </c>
       <c r="O3">
-        <v>0.07991781891745056</v>
+        <v>0.3538039290807178</v>
       </c>
       <c r="P3">
-        <v>0.05473669161449624</v>
+        <v>0.2674056793968462</v>
       </c>
       <c r="Q3">
-        <v>6.803651756796</v>
+        <v>27.29579475806</v>
       </c>
       <c r="R3">
-        <v>40.821910540776</v>
+        <v>163.77476854836</v>
       </c>
       <c r="S3">
-        <v>0.05838088001848325</v>
+        <v>0.2196131730759985</v>
       </c>
       <c r="T3">
-        <v>0.04176708594208018</v>
+        <v>0.178705861939559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H4">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I4">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J4">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.010998</v>
+        <v>0.01005766666666667</v>
       </c>
       <c r="N4">
-        <v>0.032994</v>
+        <v>0.030173</v>
       </c>
       <c r="O4">
-        <v>0.005363749481003511</v>
+        <v>0.003835360785828855</v>
       </c>
       <c r="P4">
-        <v>0.005510546431623061</v>
+        <v>0.004348159414162149</v>
       </c>
       <c r="Q4">
-        <v>0.456632626788</v>
+        <v>0.2958961510266667</v>
       </c>
       <c r="R4">
-        <v>4.109693641092</v>
+        <v>2.66306535924</v>
       </c>
       <c r="S4">
-        <v>0.003918280292698173</v>
+        <v>0.002380685127651497</v>
       </c>
       <c r="T4">
-        <v>0.004204847965938612</v>
+        <v>0.002905852926202356</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>21.551639</v>
       </c>
       <c r="I5">
-        <v>0.1263958572665066</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J5">
-        <v>0.1320266053993819</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.875567333333333</v>
+        <v>1.684496</v>
       </c>
       <c r="N5">
-        <v>5.626702</v>
+        <v>5.053488</v>
       </c>
       <c r="O5">
-        <v>0.9147184316015461</v>
+        <v>0.6423607101334534</v>
       </c>
       <c r="P5">
-        <v>0.9397527619538806</v>
+        <v>0.7282461611889918</v>
       </c>
       <c r="Q5">
-        <v>13.47385002939756</v>
+        <v>12.10121656298133</v>
       </c>
       <c r="R5">
-        <v>121.264650264578</v>
+        <v>108.910949066832</v>
       </c>
       <c r="S5">
-        <v>0.1156166203197518</v>
+        <v>0.09736249085370255</v>
       </c>
       <c r="T5">
-        <v>0.1240723670754643</v>
+        <v>0.1188401925409927</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>21.551639</v>
       </c>
       <c r="I6">
-        <v>0.1263958572665066</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J6">
-        <v>0.1320266053993819</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.163866</v>
+        <v>0.9277985</v>
       </c>
       <c r="N6">
-        <v>0.327732</v>
+        <v>1.855597</v>
       </c>
       <c r="O6">
-        <v>0.07991781891745056</v>
+        <v>0.3538039290807178</v>
       </c>
       <c r="P6">
-        <v>0.05473669161449624</v>
+        <v>0.2674056793968462</v>
       </c>
       <c r="Q6">
-        <v>1.177193625458</v>
+        <v>6.665192778913833</v>
       </c>
       <c r="R6">
-        <v>7.063161752748001</v>
+        <v>39.991156673483</v>
       </c>
       <c r="S6">
-        <v>0.0101012812329406</v>
+        <v>0.05362599434509131</v>
       </c>
       <c r="T6">
-        <v>0.007226699584654754</v>
+        <v>0.04363708883022746</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>21.551639</v>
       </c>
       <c r="I7">
-        <v>0.1263958572665066</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J7">
-        <v>0.1320266053993819</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.010998</v>
+        <v>0.01005766666666667</v>
       </c>
       <c r="N7">
-        <v>0.032994</v>
+        <v>0.030173</v>
       </c>
       <c r="O7">
-        <v>0.005363749481003511</v>
+        <v>0.003835360785828855</v>
       </c>
       <c r="P7">
-        <v>0.005510546431623061</v>
+        <v>0.004348159414162149</v>
       </c>
       <c r="Q7">
-        <v>0.07900830857400001</v>
+        <v>0.07225306706077778</v>
       </c>
       <c r="R7">
-        <v>0.7110747771660001</v>
+        <v>0.650277603547</v>
       </c>
       <c r="S7">
-        <v>0.0006779557138142187</v>
+        <v>0.0005813249059914195</v>
       </c>
       <c r="T7">
-        <v>0.0007275387392628701</v>
+        <v>0.0007095624110593265</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.229894</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H8">
-        <v>0.6896819999999999</v>
+        <v>1.161929</v>
       </c>
       <c r="I8">
-        <v>0.004044840748830231</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J8">
-        <v>0.004225032410066655</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.875567333333333</v>
+        <v>1.684496</v>
       </c>
       <c r="N8">
-        <v>5.626702</v>
+        <v>5.053488</v>
       </c>
       <c r="O8">
-        <v>0.9147184316015461</v>
+        <v>0.6423607101334534</v>
       </c>
       <c r="P8">
-        <v>0.9397527619538806</v>
+        <v>0.7282461611889918</v>
       </c>
       <c r="Q8">
-        <v>0.4311816765293333</v>
+        <v>0.6524215842613333</v>
       </c>
       <c r="R8">
-        <v>3.880635088764</v>
+        <v>5.871794258352</v>
       </c>
       <c r="S8">
-        <v>0.003699890385848011</v>
+        <v>0.005249173932207743</v>
       </c>
       <c r="T8">
-        <v>0.0039704858767048</v>
+        <v>0.006407116696737688</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.229894</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H9">
-        <v>0.6896819999999999</v>
+        <v>1.161929</v>
       </c>
       <c r="I9">
-        <v>0.004044840748830231</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J9">
-        <v>0.004225032410066655</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.163866</v>
+        <v>0.9277985</v>
       </c>
       <c r="N9">
-        <v>0.327732</v>
+        <v>1.855597</v>
       </c>
       <c r="O9">
-        <v>0.07991781891745056</v>
+        <v>0.3538039290807178</v>
       </c>
       <c r="P9">
-        <v>0.05473669161449624</v>
+        <v>0.2674056793968462</v>
       </c>
       <c r="Q9">
-        <v>0.037671810204</v>
+        <v>0.3593453277688333</v>
       </c>
       <c r="R9">
-        <v>0.226030861224</v>
+        <v>2.156071966613</v>
       </c>
       <c r="S9">
-        <v>0.0003232548505149395</v>
+        <v>0.002891176767734352</v>
       </c>
       <c r="T9">
-        <v>0.0002312642960910703</v>
+        <v>0.002352637726876242</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.229894</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H10">
-        <v>0.6896819999999999</v>
+        <v>1.161929</v>
       </c>
       <c r="I10">
-        <v>0.004044840748830231</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J10">
-        <v>0.004225032410066655</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.010998</v>
+        <v>0.01005766666666667</v>
       </c>
       <c r="N10">
-        <v>0.032994</v>
+        <v>0.030173</v>
       </c>
       <c r="O10">
-        <v>0.005363749481003511</v>
+        <v>0.003835360785828855</v>
       </c>
       <c r="P10">
-        <v>0.005510546431623061</v>
+        <v>0.004348159414162149</v>
       </c>
       <c r="Q10">
-        <v>0.002528374212</v>
+        <v>0.003895431524111111</v>
       </c>
       <c r="R10">
-        <v>0.022755367908</v>
+        <v>0.035058883717</v>
       </c>
       <c r="S10">
-        <v>2.169551246728E-05</v>
+        <v>3.13413873856046E-05</v>
       </c>
       <c r="T10">
-        <v>2.328223727078459E-05</v>
+        <v>3.825514814533373E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.2719705</v>
+        <v>10.122265</v>
       </c>
       <c r="H11">
-        <v>14.543941</v>
+        <v>20.24453</v>
       </c>
       <c r="I11">
-        <v>0.1279457602316344</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J11">
-        <v>0.08909703616318426</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.875567333333333</v>
+        <v>1.684496</v>
       </c>
       <c r="N11">
-        <v>5.626702</v>
+        <v>5.053488</v>
       </c>
       <c r="O11">
-        <v>0.9147184316015461</v>
+        <v>0.6423607101334534</v>
       </c>
       <c r="P11">
-        <v>0.9397527619538806</v>
+        <v>0.7282461611889918</v>
       </c>
       <c r="Q11">
-        <v>13.63907031876367</v>
+        <v>17.05091490344</v>
       </c>
       <c r="R11">
-        <v>81.834421912582</v>
+        <v>102.30548942064</v>
       </c>
       <c r="S11">
-        <v>0.1170343451291481</v>
+        <v>0.1371861694808344</v>
       </c>
       <c r="T11">
-        <v>0.08372918581625718</v>
+        <v>0.1116325233130484</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.2719705</v>
+        <v>10.122265</v>
       </c>
       <c r="H12">
-        <v>14.543941</v>
+        <v>20.24453</v>
       </c>
       <c r="I12">
-        <v>0.1279457602316344</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J12">
-        <v>0.08909703616318426</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.163866</v>
+        <v>0.9277985</v>
       </c>
       <c r="N12">
-        <v>0.327732</v>
+        <v>1.855597</v>
       </c>
       <c r="O12">
-        <v>0.07991781891745056</v>
+        <v>0.3538039290807178</v>
       </c>
       <c r="P12">
-        <v>0.05473669161449624</v>
+        <v>0.2674056793968462</v>
       </c>
       <c r="Q12">
-        <v>1.191628717953</v>
+        <v>9.391422283602498</v>
       </c>
       <c r="R12">
-        <v>4.766514871812</v>
+        <v>37.56568913440999</v>
       </c>
       <c r="S12">
-        <v>0.0102251460974473</v>
+        <v>0.07556035886405424</v>
       </c>
       <c r="T12">
-        <v>0.004876876992229836</v>
+        <v>0.04099049515149194</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.2719705</v>
+        <v>10.122265</v>
       </c>
       <c r="H13">
-        <v>14.543941</v>
+        <v>20.24453</v>
       </c>
       <c r="I13">
-        <v>0.1279457602316344</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J13">
-        <v>0.08909703616318426</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1240,28 +1240,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.010998</v>
+        <v>0.01005766666666667</v>
       </c>
       <c r="N13">
-        <v>0.032994</v>
+        <v>0.030173</v>
       </c>
       <c r="O13">
-        <v>0.005363749481003511</v>
+        <v>0.003835360785828855</v>
       </c>
       <c r="P13">
-        <v>0.005510546431623061</v>
+        <v>0.004348159414162149</v>
       </c>
       <c r="Q13">
-        <v>0.07997713155900001</v>
+        <v>0.1018063672816666</v>
       </c>
       <c r="R13">
-        <v>0.4798627893540001</v>
+        <v>0.6108382036899999</v>
       </c>
       <c r="S13">
-        <v>0.0006862690050390284</v>
+        <v>0.0008191012409142389</v>
       </c>
       <c r="T13">
-        <v>0.0004909733546972258</v>
+        <v>0.0006665273818646862</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6310036666666666</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H14">
-        <v>1.893011</v>
+        <v>0.84928</v>
       </c>
       <c r="I14">
-        <v>0.01110211377241086</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J14">
-        <v>0.011596696488545</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.875567333333333</v>
+        <v>1.684496</v>
       </c>
       <c r="N14">
-        <v>5.626702</v>
+        <v>5.053488</v>
       </c>
       <c r="O14">
-        <v>0.9147184316015461</v>
+        <v>0.6423607101334534</v>
       </c>
       <c r="P14">
-        <v>0.9397527619538806</v>
+        <v>0.7282461611889918</v>
       </c>
       <c r="Q14">
-        <v>1.183489864413555</v>
+        <v>0.4768695876266667</v>
       </c>
       <c r="R14">
-        <v>10.651408779722</v>
+        <v>4.29182628864</v>
       </c>
       <c r="S14">
-        <v>0.01015530809736158</v>
+        <v>0.003836739109829768</v>
       </c>
       <c r="T14">
-        <v>0.01089802755465103</v>
+        <v>0.004683105480804235</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6310036666666666</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H15">
-        <v>1.893011</v>
+        <v>0.84928</v>
       </c>
       <c r="I15">
-        <v>0.01110211377241086</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J15">
-        <v>0.011596696488545</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.163866</v>
+        <v>0.9277985</v>
       </c>
       <c r="N15">
-        <v>0.327732</v>
+        <v>1.855597</v>
       </c>
       <c r="O15">
-        <v>0.07991781891745056</v>
+        <v>0.3538039290807178</v>
       </c>
       <c r="P15">
-        <v>0.05473669161449624</v>
+        <v>0.2674056793968462</v>
       </c>
       <c r="Q15">
-        <v>0.103400046842</v>
+        <v>0.2626535700266667</v>
       </c>
       <c r="R15">
-        <v>0.6204002810520001</v>
+        <v>1.57592142016</v>
       </c>
       <c r="S15">
-        <v>0.0008872567180644649</v>
+        <v>0.002113226027839421</v>
       </c>
       <c r="T15">
-        <v>0.0006347647994403989</v>
+        <v>0.001719595748691576</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6310036666666666</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H16">
-        <v>1.893011</v>
+        <v>0.84928</v>
       </c>
       <c r="I16">
-        <v>0.01110211377241086</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J16">
-        <v>0.011596696488545</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.010998</v>
+        <v>0.01005766666666667</v>
       </c>
       <c r="N16">
-        <v>0.032994</v>
+        <v>0.030173</v>
       </c>
       <c r="O16">
-        <v>0.005363749481003511</v>
+        <v>0.003835360785828855</v>
       </c>
       <c r="P16">
-        <v>0.005510546431623061</v>
+        <v>0.004348159414162149</v>
       </c>
       <c r="Q16">
-        <v>0.006939778326</v>
+        <v>0.002847258382222222</v>
       </c>
       <c r="R16">
-        <v>0.06245800493400001</v>
+        <v>0.02562532544</v>
       </c>
       <c r="S16">
-        <v>5.954895698481066E-05</v>
+        <v>2.290812388609483E-05</v>
       </c>
       <c r="T16">
-        <v>6.390413445356732E-05</v>
+        <v>2.7961546890446E-05</v>
       </c>
     </row>
   </sheetData>
